--- a/existing_cisco_ise_authz_rules.xlsx
+++ b/existing_cisco_ise_authz_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,15 +471,10 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>UserName3</t>
+          <t>ExternalGroups1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ExternalGroups1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ExternalGroups2</t>
         </is>
@@ -496,12 +491,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>USER3-Rule</t>
+          <t>USER10-Rule</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>bab4bf2d-d5c7-4caa-b6a5-2f33f69762f2</t>
+          <t>402e2581-d56b-4341-af06-f2837b6cd934</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,18 +506,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>USER3-Profile</t>
+          <t>USER10-Profile</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>user3@RSA</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>user10@RSA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>user10@soe.sgnet.gov.sg</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -535,12 +533,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>USER2-Rule</t>
+          <t>USER09-Rule</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>73187db8-9aab-4115-8e8a-3e6efb8713a4</t>
+          <t>64b46d98-1c03-46ef-9a0f-931699e35679</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -550,26 +548,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>USER2-Profile</t>
+          <t>USER09-Profile</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>user2@RSA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>user2@soe.sgnet.gov.sg</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>user2@test</t>
-        </is>
-      </c>
+          <t>user09@RSA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -582,12 +571,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>USER1-Rule</t>
+          <t>USER08-Rule</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>c8f4a259-641e-4c70-8f33-b679b01ecbaa</t>
+          <t>7b759086-46ba-47e6-a7c6-af7331874daa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -597,22 +586,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>USER1-Profile</t>
+          <t>USER08-Profile</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>user1@RSA</t>
+          <t>user08@RSA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>user1@soe.sgnet.gov.sg</t>
+          <t>user08@soe.sgnet.gov.sg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -620,17 +608,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GoMAX</t>
+          <t>Static</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PILOT-VPN-03-Rule</t>
+          <t>USER07-Rule</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>66223055-33a4-4aa4-a7b6-2d365ab1acb2</t>
+          <t>0866da95-e638-4dc0-86ad-eca2fef56661</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -640,18 +628,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PILOT-VPN-03-Profile</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>USER07-Profile</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>user07@RSA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>user07@soe.sgnet.gov.sg</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CN=PILOT-VPN-03,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -659,17 +650,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GoMAX</t>
+          <t>Static</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PILOT-VPN-02-Rule</t>
+          <t>USER06-Rule</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>eb628642-b7e1-43f8-b774-9f0120f302a8</t>
+          <t>fccd6a91-e045-4bb6-9962-e5627505b438</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -679,18 +670,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PILOT-VPN-02-Profile</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>USER06-Profile</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>user06@RSA</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>CN=PILOT-VPN-02,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -698,17 +688,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GoMAX</t>
+          <t>Static</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PILOT-VPN-01-Rule</t>
+          <t>USER05-Rule</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0f799ee7-9499-41d7-8c79-948c2ce4b81a</t>
+          <t>ebbb2591-9895-43a9-a079-0937a470d373</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -718,18 +708,21 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PILOT-VPN-01-Profile</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>USER05-Profile</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>user05@RSA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>user05@soe.sgnet.gov.sg</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>CN=PILOT-VPN-01,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -737,17 +730,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RSA_SC</t>
+          <t>Static</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IOC-VPN-03-Rule</t>
+          <t>USER04-Rule</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5cc273b3-4722-427b-ba0e-9b45f0cb1342</t>
+          <t>0d7cb595-30e4-4bf5-93d9-356745587795</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -757,22 +750,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>IOC-VPN-03-Profile</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>USER04-Profile</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>user04@RSA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>user04@soe.sgnet.gov.sg</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>CN=IOC-VPN-03,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>CN=IOC-VPN-03,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -780,17 +772,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RSA_SC</t>
+          <t>Static</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IOC-VPN-02-Rule</t>
+          <t>USER03-Rule</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15ab786f-895c-4c96-b4ce-35e29fd2a457</t>
+          <t>a7579d28-40f9-474a-8cd7-21fad1a73b78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -800,22 +792,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>IOC-VPN-02-Profile</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>USER03-Profile</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>user03@RSA</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>CN=IOC-VPN-02,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>CN=IOC-VPN-02,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -823,42 +810,883 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>USER02-Rule</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>85de1769-cb39-4505-bfc9-bd150604c3e1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>USER02-Profile</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>user03@RSA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>user02@soe.sgnet.gov.sg</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>USER01-Rule</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>a34cb229-c8c8-419b-9f6a-129443d66be7</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>USER01-Profile</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>user01@RSA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>user01@soe.sgnet.gov.sg</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>RSA_SC</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>IOC-VPN-10-Rule</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>783766cf-0acb-4b47-8b60-ddb0ed70e57a</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>IOC-VPN-10-Profile</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-10,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-10,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RSA_SC</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>IOC-VPN-09-Rule</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>064a9cfd-c70d-450d-b9e2-e6bc266676f5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>IOC-VPN-09-Profile</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-09,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-09,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RSA_SC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>IOC-VPN-08-Rule</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>722f2e91-dd33-409b-9864-1dc4aa0a2044</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>IOC-VPN-08-Profile</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-08,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-08,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RSA_SC</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>IOC-VPN-07-Rule</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>000b827d-5113-4008-a06b-ca61ee4cf80f</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>IOC-VPN-07-Profile</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-07,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-07,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RSA_SC</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>IOC-VPN-06-Rule</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>f46c3e03-08d5-4848-9b6e-5b57d3fce80c</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>IOC-VPN-06-Profile</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-06,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-06,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RSA_SC</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>IOC-VPN-05-Rule</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>88630062-0847-4366-8f08-76becbdcaf37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>IOC-VPN-05-Profile</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-05,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-05,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RSA_SC</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>IOC-VPN-04-Rule</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ac7056a4-c1b1-4e0c-864d-15abd543bd09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>IOC-VPN-04-Profile</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-04,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-04,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RSA_SC</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>IOC-VPN-03-Rule</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>721d22e0-44fa-4f98-a25b-e352c95a78cc</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>IOC-VPN-03-Profile</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-03,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-03,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RSA_SC</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>IOC-VPN-02-Rule</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>b0d254c3-50b8-464c-bc70-9c045a288448</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>IOC-VPN-02-Profile</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-02,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>CN=IOC-VPN-02,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RSA_SC</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>IOC-VPN-01-Rule</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>a8debcfb-c63a-4c60-bdfc-62ddba4beafb</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>enabled</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>a51b2f82-213f-4222-bf47-f6fa4763928b</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>IOC-VPN-01-Profile</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>CN=IOC-VPN-01,CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>CN=IOC-VPN-01,CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
         </is>
       </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GoMAX</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-10-Rule</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>adf3fda9-25bf-4583-8bf9-fd17e16bd969</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-10-Profile</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CN=PILOT-VPN-10,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GoMAX</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-09-Rule</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>84435f80-d8bb-4de5-af74-c5b158f0470d</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-09-Profile</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>CN=PILOT-VPN-09,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GoMAX</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-08-Rule</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>b1771322-ebad-42a0-9b24-3e7d07ed0cc7</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-08-Profile</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>CN=PILOT-VPN-08,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GoMAX</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-07-Rule</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>c31715e2-ee1f-4048-97a4-f228402f1cd3</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-07-Profile</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>CN=PILOT-VPN-07,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GoMAX</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-06-Rule</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>fb9dc11e-de4a-4e92-8680-2839323f137c</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-06-Profile</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CN=PILOT-VPN-06,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GoMAX</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-05-Rule</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ed7971b5-53f6-4172-bc91-dbbfced08671</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-05-Profile</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CN=PILOT-VPN-05,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GoMAX</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-04-Rule</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>cce88657-c3dc-46eb-8815-42ad4aaecfb7</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-04-Profile</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CN=PILOT-VPN-04,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GoMAX</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-03-Rule</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>371ab988-71aa-4b52-89c3-540ff14fc880</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-03-Profile</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>CN=PILOT-VPN-03,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GoMAX</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-02-Rule</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>be87f7cc-e1e8-427d-9434-295676c755e0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-02-Profile</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>CN=PILOT-VPN-02,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GoMAX</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-01-Rule</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>f64a3e1c-56b0-4773-929c-6aac20bfd5e7</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-01-Profile</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>CN=PILOT-VPN-01,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
